--- a/Flipkart/FSN Data From Company/MAVOX helmets - 349 FSN --NLC.XLSX
+++ b/Flipkart/FSN Data From Company/MAVOX helmets - 349 FSN --NLC.XLSX
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Flipkart\FSN Data From Company\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6998446-FDD6-4904-903B-2B221F0F2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2198,7 +2197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -2331,7 +2330,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2422,23 +2421,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2474,23 +2456,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2666,24 +2631,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="15"/>
-    <col min="10" max="10" width="12.5546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="15"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="15"/>
+    <col min="10" max="10" width="12.5703125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2728,7 +2695,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2741,7 @@
       </c>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -6086,7 +6053,7 @@
       </c>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="1:14" ht="15.6">
+    <row r="75" spans="1:14" ht="15.75">
       <c r="A75" s="4" t="s">
         <v>150</v>
       </c>
@@ -8524,7 +8491,7 @@
       </c>
       <c r="N127" s="12"/>
     </row>
-    <row r="128" spans="1:14" ht="15.6">
+    <row r="128" spans="1:14" ht="15.75">
       <c r="A128" s="4" t="s">
         <v>239</v>
       </c>
@@ -8570,7 +8537,7 @@
       </c>
       <c r="N128" s="12"/>
     </row>
-    <row r="129" spans="1:14" ht="15.6">
+    <row r="129" spans="1:14" ht="15.75">
       <c r="A129" s="4" t="s">
         <v>242</v>
       </c>
@@ -8616,7 +8583,7 @@
       </c>
       <c r="N129" s="12"/>
     </row>
-    <row r="130" spans="1:14" ht="15.6">
+    <row r="130" spans="1:14" ht="15.75">
       <c r="A130" s="4" t="s">
         <v>245</v>
       </c>
@@ -8662,7 +8629,7 @@
       </c>
       <c r="N130" s="12"/>
     </row>
-    <row r="131" spans="1:14" ht="15.6">
+    <row r="131" spans="1:14" ht="15.75">
       <c r="A131" s="4" t="s">
         <v>246</v>
       </c>
@@ -8708,7 +8675,7 @@
       </c>
       <c r="N131" s="12"/>
     </row>
-    <row r="132" spans="1:14" ht="15.6">
+    <row r="132" spans="1:14" ht="15.75">
       <c r="A132" s="4" t="s">
         <v>252</v>
       </c>
@@ -8754,7 +8721,7 @@
       </c>
       <c r="N132" s="12"/>
     </row>
-    <row r="133" spans="1:14" ht="15.6">
+    <row r="133" spans="1:14" ht="15.75">
       <c r="A133" s="4" t="s">
         <v>254</v>
       </c>
@@ -8800,7 +8767,7 @@
       </c>
       <c r="N133" s="12"/>
     </row>
-    <row r="134" spans="1:14" ht="15.6">
+    <row r="134" spans="1:14" ht="15.75">
       <c r="A134" s="4" t="s">
         <v>256</v>
       </c>
@@ -8846,7 +8813,7 @@
       </c>
       <c r="N134" s="12"/>
     </row>
-    <row r="135" spans="1:14" ht="15.6">
+    <row r="135" spans="1:14" ht="15.75">
       <c r="A135" s="4" t="s">
         <v>260</v>
       </c>
@@ -8892,7 +8859,7 @@
       </c>
       <c r="N135" s="12"/>
     </row>
-    <row r="136" spans="1:14" ht="15.6">
+    <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="4" t="s">
         <v>262</v>
       </c>
@@ -8938,7 +8905,7 @@
       </c>
       <c r="N136" s="12"/>
     </row>
-    <row r="137" spans="1:14" ht="15.6">
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="4" t="s">
         <v>266</v>
       </c>
@@ -8984,7 +8951,7 @@
       </c>
       <c r="N137" s="12"/>
     </row>
-    <row r="138" spans="1:14" ht="15.6">
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="4" t="s">
         <v>268</v>
       </c>
@@ -9030,7 +8997,7 @@
       </c>
       <c r="N138" s="12"/>
     </row>
-    <row r="139" spans="1:14" ht="15.6">
+    <row r="139" spans="1:14" ht="15.75">
       <c r="A139" s="4" t="s">
         <v>270</v>
       </c>
@@ -9076,7 +9043,7 @@
       </c>
       <c r="N139" s="12"/>
     </row>
-    <row r="140" spans="1:14" ht="15.6">
+    <row r="140" spans="1:14" ht="15.75">
       <c r="A140" s="4" t="s">
         <v>275</v>
       </c>
@@ -9122,7 +9089,7 @@
       </c>
       <c r="N140" s="12"/>
     </row>
-    <row r="141" spans="1:14" ht="15.6">
+    <row r="141" spans="1:14" ht="15.75">
       <c r="A141" s="4" t="s">
         <v>277</v>
       </c>
@@ -9168,7 +9135,7 @@
       </c>
       <c r="N141" s="12"/>
     </row>
-    <row r="142" spans="1:14" ht="15.6">
+    <row r="142" spans="1:14" ht="15.75">
       <c r="A142" s="4" t="s">
         <v>279</v>
       </c>
@@ -9214,7 +9181,7 @@
       </c>
       <c r="N142" s="12"/>
     </row>
-    <row r="143" spans="1:14" ht="15.6">
+    <row r="143" spans="1:14" ht="15.75">
       <c r="A143" s="4" t="s">
         <v>283</v>
       </c>
@@ -9260,7 +9227,7 @@
       </c>
       <c r="N143" s="12"/>
     </row>
-    <row r="144" spans="1:14" ht="15.6">
+    <row r="144" spans="1:14" ht="15.75">
       <c r="A144" s="4" t="s">
         <v>285</v>
       </c>
@@ -9306,7 +9273,7 @@
       </c>
       <c r="N144" s="12"/>
     </row>
-    <row r="145" spans="1:14" ht="15.6">
+    <row r="145" spans="1:14" ht="15.75">
       <c r="A145" s="4" t="s">
         <v>287</v>
       </c>
@@ -9352,7 +9319,7 @@
       </c>
       <c r="N145" s="12"/>
     </row>
-    <row r="146" spans="1:14" ht="15.6">
+    <row r="146" spans="1:14" ht="15.75">
       <c r="A146" s="4" t="s">
         <v>291</v>
       </c>
@@ -9398,7 +9365,7 @@
       </c>
       <c r="N146" s="12"/>
     </row>
-    <row r="147" spans="1:14" ht="15.6">
+    <row r="147" spans="1:14" ht="15.75">
       <c r="A147" s="4" t="s">
         <v>293</v>
       </c>
@@ -9444,7 +9411,7 @@
       </c>
       <c r="N147" s="12"/>
     </row>
-    <row r="148" spans="1:14" ht="15.6">
+    <row r="148" spans="1:14" ht="15.75">
       <c r="A148" s="4" t="s">
         <v>295</v>
       </c>
@@ -9490,7 +9457,7 @@
       </c>
       <c r="N148" s="12"/>
     </row>
-    <row r="149" spans="1:14" ht="15.6">
+    <row r="149" spans="1:14" ht="15.75">
       <c r="A149" s="4" t="s">
         <v>300</v>
       </c>
@@ -9536,7 +9503,7 @@
       </c>
       <c r="N149" s="12"/>
     </row>
-    <row r="150" spans="1:14" ht="15.6">
+    <row r="150" spans="1:14" ht="15.75">
       <c r="A150" s="4" t="s">
         <v>301</v>
       </c>
@@ -9582,7 +9549,7 @@
       </c>
       <c r="N150" s="12"/>
     </row>
-    <row r="151" spans="1:14" ht="15.6">
+    <row r="151" spans="1:14" ht="15.75">
       <c r="A151" s="4" t="s">
         <v>304</v>
       </c>
@@ -9628,7 +9595,7 @@
       </c>
       <c r="N151" s="12"/>
     </row>
-    <row r="152" spans="1:14" ht="15.6">
+    <row r="152" spans="1:14" ht="15.75">
       <c r="A152" s="4" t="s">
         <v>306</v>
       </c>
@@ -9674,7 +9641,7 @@
       </c>
       <c r="N152" s="12"/>
     </row>
-    <row r="153" spans="1:14" ht="15.6">
+    <row r="153" spans="1:14" ht="15.75">
       <c r="A153" s="4" t="s">
         <v>308</v>
       </c>
@@ -9720,7 +9687,7 @@
       </c>
       <c r="N153" s="12"/>
     </row>
-    <row r="154" spans="1:14" ht="15.6">
+    <row r="154" spans="1:14" ht="15.75">
       <c r="A154" s="4" t="s">
         <v>311</v>
       </c>
@@ -9766,7 +9733,7 @@
       </c>
       <c r="N154" s="12"/>
     </row>
-    <row r="155" spans="1:14" ht="15.6">
+    <row r="155" spans="1:14" ht="15.75">
       <c r="A155" s="4" t="s">
         <v>313</v>
       </c>
@@ -9812,7 +9779,7 @@
       </c>
       <c r="N155" s="12"/>
     </row>
-    <row r="156" spans="1:14" ht="15.6">
+    <row r="156" spans="1:14" ht="15.75">
       <c r="A156" s="4" t="s">
         <v>314</v>
       </c>
@@ -9858,7 +9825,7 @@
       </c>
       <c r="N156" s="12"/>
     </row>
-    <row r="157" spans="1:14" ht="15.6">
+    <row r="157" spans="1:14" ht="15.75">
       <c r="A157" s="4" t="s">
         <v>317</v>
       </c>
@@ -9904,7 +9871,7 @@
       </c>
       <c r="N157" s="12"/>
     </row>
-    <row r="158" spans="1:14" ht="15.6">
+    <row r="158" spans="1:14" ht="15.75">
       <c r="A158" s="4" t="s">
         <v>319</v>
       </c>
@@ -9950,7 +9917,7 @@
       </c>
       <c r="N158" s="12"/>
     </row>
-    <row r="159" spans="1:14" ht="15.6">
+    <row r="159" spans="1:14" ht="15.75">
       <c r="A159" s="4" t="s">
         <v>321</v>
       </c>
@@ -9996,7 +9963,7 @@
       </c>
       <c r="N159" s="12"/>
     </row>
-    <row r="160" spans="1:14" ht="15.6">
+    <row r="160" spans="1:14" ht="15.75">
       <c r="A160" s="4" t="s">
         <v>325</v>
       </c>
@@ -10042,7 +10009,7 @@
       </c>
       <c r="N160" s="12"/>
     </row>
-    <row r="161" spans="1:14" ht="15.6">
+    <row r="161" spans="1:14" ht="15.75">
       <c r="A161" s="4" t="s">
         <v>327</v>
       </c>
@@ -10088,7 +10055,7 @@
       </c>
       <c r="N161" s="12"/>
     </row>
-    <row r="162" spans="1:14" ht="15.6">
+    <row r="162" spans="1:14" ht="15.75">
       <c r="A162" s="4" t="s">
         <v>329</v>
       </c>
@@ -10134,7 +10101,7 @@
       </c>
       <c r="N162" s="12"/>
     </row>
-    <row r="163" spans="1:14" ht="15.6">
+    <row r="163" spans="1:14" ht="15.75">
       <c r="A163" s="4" t="s">
         <v>333</v>
       </c>
@@ -10180,7 +10147,7 @@
       </c>
       <c r="N163" s="12"/>
     </row>
-    <row r="164" spans="1:14" ht="15.6">
+    <row r="164" spans="1:14" ht="15.75">
       <c r="A164" s="4" t="s">
         <v>335</v>
       </c>
@@ -10226,7 +10193,7 @@
       </c>
       <c r="N164" s="12"/>
     </row>
-    <row r="165" spans="1:14" ht="15.6">
+    <row r="165" spans="1:14" ht="15.75">
       <c r="A165" s="4" t="s">
         <v>337</v>
       </c>
@@ -10272,7 +10239,7 @@
       </c>
       <c r="N165" s="12"/>
     </row>
-    <row r="166" spans="1:14" ht="15.6">
+    <row r="166" spans="1:14" ht="15.75">
       <c r="A166" s="4" t="s">
         <v>341</v>
       </c>
@@ -10318,7 +10285,7 @@
       </c>
       <c r="N166" s="12"/>
     </row>
-    <row r="167" spans="1:14" ht="15.6">
+    <row r="167" spans="1:14" ht="15.75">
       <c r="A167" s="4" t="s">
         <v>343</v>
       </c>
@@ -10364,7 +10331,7 @@
       </c>
       <c r="N167" s="12"/>
     </row>
-    <row r="168" spans="1:14" ht="15.6">
+    <row r="168" spans="1:14" ht="15.75">
       <c r="A168" s="4" t="s">
         <v>345</v>
       </c>
@@ -10410,7 +10377,7 @@
       </c>
       <c r="N168" s="12"/>
     </row>
-    <row r="169" spans="1:14" ht="15.6">
+    <row r="169" spans="1:14" ht="15.75">
       <c r="A169" s="4" t="s">
         <v>349</v>
       </c>
@@ -10456,7 +10423,7 @@
       </c>
       <c r="N169" s="12"/>
     </row>
-    <row r="170" spans="1:14" ht="15.6">
+    <row r="170" spans="1:14" ht="15.75">
       <c r="A170" s="4" t="s">
         <v>351</v>
       </c>
@@ -10502,7 +10469,7 @@
       </c>
       <c r="N170" s="12"/>
     </row>
-    <row r="171" spans="1:14" ht="15.6">
+    <row r="171" spans="1:14" ht="15.75">
       <c r="A171" s="4" t="s">
         <v>353</v>
       </c>
@@ -10548,7 +10515,7 @@
       </c>
       <c r="N171" s="12"/>
     </row>
-    <row r="172" spans="1:14" ht="15.6">
+    <row r="172" spans="1:14" ht="15.75">
       <c r="A172" s="4" t="s">
         <v>357</v>
       </c>
@@ -10594,7 +10561,7 @@
       </c>
       <c r="N172" s="12"/>
     </row>
-    <row r="173" spans="1:14" ht="15.6">
+    <row r="173" spans="1:14" ht="15.75">
       <c r="A173" s="4" t="s">
         <v>359</v>
       </c>
@@ -10640,7 +10607,7 @@
       </c>
       <c r="N173" s="12"/>
     </row>
-    <row r="174" spans="1:14" ht="15.6">
+    <row r="174" spans="1:14" ht="15.75">
       <c r="A174" s="4" t="s">
         <v>361</v>
       </c>
@@ -10686,7 +10653,7 @@
       </c>
       <c r="N174" s="12"/>
     </row>
-    <row r="175" spans="1:14" ht="15.6">
+    <row r="175" spans="1:14" ht="15.75">
       <c r="A175" s="4" t="s">
         <v>364</v>
       </c>
@@ -10732,7 +10699,7 @@
       </c>
       <c r="N175" s="12"/>
     </row>
-    <row r="176" spans="1:14" ht="15.6">
+    <row r="176" spans="1:14" ht="15.75">
       <c r="A176" s="4" t="s">
         <v>367</v>
       </c>
@@ -10778,7 +10745,7 @@
       </c>
       <c r="N176" s="12"/>
     </row>
-    <row r="177" spans="1:14" ht="15.6">
+    <row r="177" spans="1:14" ht="15.75">
       <c r="A177" s="4" t="s">
         <v>369</v>
       </c>
@@ -10824,7 +10791,7 @@
       </c>
       <c r="N177" s="12"/>
     </row>
-    <row r="178" spans="1:14" ht="15.6">
+    <row r="178" spans="1:14" ht="15.75">
       <c r="A178" s="4" t="s">
         <v>370</v>
       </c>
@@ -10870,7 +10837,7 @@
       </c>
       <c r="N178" s="12"/>
     </row>
-    <row r="179" spans="1:14" ht="15.6">
+    <row r="179" spans="1:14" ht="15.75">
       <c r="A179" s="4" t="s">
         <v>372</v>
       </c>
@@ -10916,7 +10883,7 @@
       </c>
       <c r="N179" s="12"/>
     </row>
-    <row r="180" spans="1:14" ht="15.6">
+    <row r="180" spans="1:14" ht="15.75">
       <c r="A180" s="4" t="s">
         <v>375</v>
       </c>
@@ -10962,7 +10929,7 @@
       </c>
       <c r="N180" s="12"/>
     </row>
-    <row r="181" spans="1:14" ht="15.6">
+    <row r="181" spans="1:14" ht="15.75">
       <c r="A181" s="4" t="s">
         <v>377</v>
       </c>
@@ -11008,7 +10975,7 @@
       </c>
       <c r="N181" s="12"/>
     </row>
-    <row r="182" spans="1:14" ht="15.6">
+    <row r="182" spans="1:14" ht="15.75">
       <c r="A182" s="4" t="s">
         <v>381</v>
       </c>
@@ -11054,7 +11021,7 @@
       </c>
       <c r="N182" s="12"/>
     </row>
-    <row r="183" spans="1:14" ht="15.6">
+    <row r="183" spans="1:14" ht="15.75">
       <c r="A183" s="4" t="s">
         <v>382</v>
       </c>
@@ -11100,7 +11067,7 @@
       </c>
       <c r="N183" s="12"/>
     </row>
-    <row r="184" spans="1:14" ht="15.6">
+    <row r="184" spans="1:14" ht="15.75">
       <c r="A184" s="4" t="s">
         <v>384</v>
       </c>
@@ -11146,7 +11113,7 @@
       </c>
       <c r="N184" s="12"/>
     </row>
-    <row r="185" spans="1:14" ht="15.6">
+    <row r="185" spans="1:14" ht="15.75">
       <c r="A185" s="4" t="s">
         <v>387</v>
       </c>
@@ -11192,7 +11159,7 @@
       </c>
       <c r="N185" s="12"/>
     </row>
-    <row r="186" spans="1:14" ht="15.6">
+    <row r="186" spans="1:14" ht="15.75">
       <c r="A186" s="4" t="s">
         <v>388</v>
       </c>
@@ -11238,7 +11205,7 @@
       </c>
       <c r="N186" s="12"/>
     </row>
-    <row r="187" spans="1:14" ht="15.6">
+    <row r="187" spans="1:14" ht="15.75">
       <c r="A187" s="4" t="s">
         <v>389</v>
       </c>
@@ -11284,7 +11251,7 @@
       </c>
       <c r="N187" s="12"/>
     </row>
-    <row r="188" spans="1:14" ht="15.6">
+    <row r="188" spans="1:14" ht="15.75">
       <c r="A188" s="4" t="s">
         <v>393</v>
       </c>
@@ -11330,7 +11297,7 @@
       </c>
       <c r="N188" s="12"/>
     </row>
-    <row r="189" spans="1:14" ht="15.6">
+    <row r="189" spans="1:14" ht="15.75">
       <c r="A189" s="4" t="s">
         <v>395</v>
       </c>
@@ -11376,7 +11343,7 @@
       </c>
       <c r="N189" s="12"/>
     </row>
-    <row r="190" spans="1:14" ht="15.6">
+    <row r="190" spans="1:14" ht="15.75">
       <c r="A190" s="4" t="s">
         <v>397</v>
       </c>
@@ -11422,7 +11389,7 @@
       </c>
       <c r="N190" s="12"/>
     </row>
-    <row r="191" spans="1:14" ht="15.6">
+    <row r="191" spans="1:14" ht="15.75">
       <c r="A191" s="4" t="s">
         <v>400</v>
       </c>
@@ -11468,7 +11435,7 @@
       </c>
       <c r="N191" s="12"/>
     </row>
-    <row r="192" spans="1:14" ht="15.6">
+    <row r="192" spans="1:14" ht="15.75">
       <c r="A192" s="4" t="s">
         <v>401</v>
       </c>
@@ -11514,7 +11481,7 @@
       </c>
       <c r="N192" s="12"/>
     </row>
-    <row r="193" spans="1:14" ht="15.6">
+    <row r="193" spans="1:14" ht="15.75">
       <c r="A193" s="4" t="s">
         <v>403</v>
       </c>
@@ -11560,7 +11527,7 @@
       </c>
       <c r="N193" s="12"/>
     </row>
-    <row r="194" spans="1:14" ht="15.6">
+    <row r="194" spans="1:14" ht="15.75">
       <c r="A194" s="4" t="s">
         <v>405</v>
       </c>
@@ -11606,7 +11573,7 @@
       </c>
       <c r="N194" s="12"/>
     </row>
-    <row r="195" spans="1:14" ht="15.6">
+    <row r="195" spans="1:14" ht="15.75">
       <c r="A195" s="4" t="s">
         <v>407</v>
       </c>
@@ -11652,7 +11619,7 @@
       </c>
       <c r="N195" s="12"/>
     </row>
-    <row r="196" spans="1:14" ht="15.6">
+    <row r="196" spans="1:14" ht="15.75">
       <c r="A196" s="4" t="s">
         <v>409</v>
       </c>
@@ -11698,7 +11665,7 @@
       </c>
       <c r="N196" s="12"/>
     </row>
-    <row r="197" spans="1:14" ht="15.6">
+    <row r="197" spans="1:14" ht="15.75">
       <c r="A197" s="4" t="s">
         <v>412</v>
       </c>
@@ -11744,7 +11711,7 @@
       </c>
       <c r="N197" s="12"/>
     </row>
-    <row r="198" spans="1:14" ht="15.6">
+    <row r="198" spans="1:14" ht="15.75">
       <c r="A198" s="4" t="s">
         <v>414</v>
       </c>
@@ -11790,7 +11757,7 @@
       </c>
       <c r="N198" s="12"/>
     </row>
-    <row r="199" spans="1:14" ht="15.6">
+    <row r="199" spans="1:14" ht="15.75">
       <c r="A199" s="4" t="s">
         <v>416</v>
       </c>
@@ -11836,7 +11803,7 @@
       </c>
       <c r="N199" s="12"/>
     </row>
-    <row r="200" spans="1:14" ht="15.6">
+    <row r="200" spans="1:14" ht="15.75">
       <c r="A200" s="4" t="s">
         <v>419</v>
       </c>
@@ -11974,7 +11941,7 @@
       </c>
       <c r="N202" s="12"/>
     </row>
-    <row r="203" spans="1:14" ht="15.6">
+    <row r="203" spans="1:14" ht="15.75">
       <c r="A203" s="4" t="s">
         <v>431</v>
       </c>
@@ -13170,7 +13137,7 @@
       </c>
       <c r="N228" s="12"/>
     </row>
-    <row r="229" spans="1:14" ht="15.6">
+    <row r="229" spans="1:14" ht="15.75">
       <c r="A229" s="4" t="s">
         <v>487</v>
       </c>
@@ -13216,7 +13183,7 @@
       </c>
       <c r="N229" s="12"/>
     </row>
-    <row r="230" spans="1:14" ht="15.6">
+    <row r="230" spans="1:14" ht="15.75">
       <c r="A230" s="4" t="s">
         <v>488</v>
       </c>
@@ -15010,7 +14977,7 @@
       </c>
       <c r="N268" s="12"/>
     </row>
-    <row r="269" spans="1:14" ht="15.6">
+    <row r="269" spans="1:14" ht="15.75">
       <c r="A269" s="4" t="s">
         <v>567</v>
       </c>
@@ -15056,7 +15023,7 @@
       </c>
       <c r="N269" s="12"/>
     </row>
-    <row r="270" spans="1:14" ht="15.6">
+    <row r="270" spans="1:14" ht="15.75">
       <c r="A270" s="4" t="s">
         <v>571</v>
       </c>
@@ -15102,7 +15069,7 @@
       </c>
       <c r="N270" s="12"/>
     </row>
-    <row r="271" spans="1:14" ht="15.6">
+    <row r="271" spans="1:14" ht="15.75">
       <c r="A271" s="4" t="s">
         <v>574</v>
       </c>
@@ -15148,7 +15115,7 @@
       </c>
       <c r="N271" s="12"/>
     </row>
-    <row r="272" spans="1:14" ht="15.6">
+    <row r="272" spans="1:14" ht="15.75">
       <c r="A272" s="4" t="s">
         <v>575</v>
       </c>
@@ -15194,7 +15161,7 @@
       </c>
       <c r="N272" s="12"/>
     </row>
-    <row r="273" spans="1:14" ht="15.6">
+    <row r="273" spans="1:14" ht="15.75">
       <c r="A273" s="4" t="s">
         <v>577</v>
       </c>
@@ -15240,7 +15207,7 @@
       </c>
       <c r="N273" s="12"/>
     </row>
-    <row r="274" spans="1:14" ht="15.6">
+    <row r="274" spans="1:14" ht="15.75">
       <c r="A274" s="4" t="s">
         <v>579</v>
       </c>
@@ -15286,7 +15253,7 @@
       </c>
       <c r="N274" s="12"/>
     </row>
-    <row r="275" spans="1:14" ht="15.6">
+    <row r="275" spans="1:14" ht="15.75">
       <c r="A275" s="4" t="s">
         <v>582</v>
       </c>
@@ -15332,7 +15299,7 @@
       </c>
       <c r="N275" s="12"/>
     </row>
-    <row r="276" spans="1:14" ht="15.6">
+    <row r="276" spans="1:14" ht="15.75">
       <c r="A276" s="4" t="s">
         <v>584</v>
       </c>
@@ -15378,7 +15345,7 @@
       </c>
       <c r="N276" s="12"/>
     </row>
-    <row r="277" spans="1:14" ht="15.6">
+    <row r="277" spans="1:14" ht="15.75">
       <c r="A277" s="4" t="s">
         <v>585</v>
       </c>
@@ -15424,7 +15391,7 @@
       </c>
       <c r="N277" s="12"/>
     </row>
-    <row r="278" spans="1:14" ht="15.6">
+    <row r="278" spans="1:14" ht="15.75">
       <c r="A278" s="4" t="s">
         <v>586</v>
       </c>
@@ -15470,7 +15437,7 @@
       </c>
       <c r="N278" s="12"/>
     </row>
-    <row r="279" spans="1:14" ht="15.6">
+    <row r="279" spans="1:14" ht="15.75">
       <c r="A279" s="4" t="s">
         <v>589</v>
       </c>
@@ -15516,7 +15483,7 @@
       </c>
       <c r="N279" s="12"/>
     </row>
-    <row r="280" spans="1:14" ht="15.6">
+    <row r="280" spans="1:14" ht="15.75">
       <c r="A280" s="4" t="s">
         <v>591</v>
       </c>
@@ -15562,7 +15529,7 @@
       </c>
       <c r="N280" s="12"/>
     </row>
-    <row r="281" spans="1:14" ht="15.6">
+    <row r="281" spans="1:14" ht="15.75">
       <c r="A281" s="4" t="s">
         <v>594</v>
       </c>
@@ -15700,7 +15667,7 @@
       </c>
       <c r="N283" s="12"/>
     </row>
-    <row r="284" spans="1:14" ht="15.6">
+    <row r="284" spans="1:14" ht="15.75">
       <c r="A284" s="4" t="s">
         <v>601</v>
       </c>
@@ -15746,7 +15713,7 @@
       </c>
       <c r="N284" s="12"/>
     </row>
-    <row r="285" spans="1:14" ht="15.6">
+    <row r="285" spans="1:14" ht="15.75">
       <c r="A285" s="4" t="s">
         <v>603</v>
       </c>
@@ -15838,7 +15805,7 @@
       </c>
       <c r="N286" s="12"/>
     </row>
-    <row r="287" spans="1:14" ht="15.6">
+    <row r="287" spans="1:14" ht="15.75">
       <c r="A287" s="4" t="s">
         <v>606</v>
       </c>
@@ -15930,7 +15897,7 @@
       </c>
       <c r="N288" s="12"/>
     </row>
-    <row r="289" spans="1:14" ht="15.6">
+    <row r="289" spans="1:14" ht="15.75">
       <c r="A289" s="4" t="s">
         <v>610</v>
       </c>
@@ -15976,7 +15943,7 @@
       </c>
       <c r="N289" s="12"/>
     </row>
-    <row r="290" spans="1:14" ht="15.6">
+    <row r="290" spans="1:14" ht="15.75">
       <c r="A290" s="4" t="s">
         <v>611</v>
       </c>
@@ -16022,7 +15989,7 @@
       </c>
       <c r="N290" s="12"/>
     </row>
-    <row r="291" spans="1:14" ht="15.6">
+    <row r="291" spans="1:14" ht="15.75">
       <c r="A291" s="4" t="s">
         <v>613</v>
       </c>
@@ -16114,7 +16081,7 @@
       </c>
       <c r="N292" s="12"/>
     </row>
-    <row r="293" spans="1:14" ht="15.6">
+    <row r="293" spans="1:14" ht="15.75">
       <c r="A293" s="4" t="s">
         <v>616</v>
       </c>
@@ -16206,7 +16173,7 @@
       </c>
       <c r="N294" s="12"/>
     </row>
-    <row r="295" spans="1:14" ht="15.6">
+    <row r="295" spans="1:14" ht="15.75">
       <c r="A295" s="4" t="s">
         <v>620</v>
       </c>
@@ -18789,24 +18756,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
